--- a/data/LLMs_vs_Text2KGs_QuestionAnswering.xlsx
+++ b/data/LLMs_vs_Text2KGs_QuestionAnswering.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianna/Desktop/Polifonia/WP4/from_October_2022/HEL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianna/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E41F2EF-0CCB-1641-A268-253189C9B5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBA1CC6-9B4F-B947-95EC-AD224BBCBCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arianna" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
-    <sheet name="Alessia" sheetId="2" r:id="rId4"/>
-    <sheet name="Martina" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Alessia!$A$1:$N$44</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Arianna!$A$1:$J$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$N$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$101</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="608">
   <si>
     <t>ID</t>
   </si>
@@ -77,12 +71,6 @@
     <t>ChatGPT answer</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/Fitzwilliam_Virginal_Book</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Where was Dittersdorf born?</t>
   </si>
   <si>
@@ -101,30 +89,6 @@
     <t>https://en.wikipedia.org/wiki/Carl_Ditters_von_Dittersdorf</t>
   </si>
   <si>
-    <t>Where is the Fitzwilliam Virginal Music Book kept?</t>
-  </si>
-  <si>
-    <t>Where is the Fitzwilliam Virginal Music Book kept? Give a straight answer.</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>The Fitzwilliam Virginal Book is kept at the Fitzwilliam Museum in Cambridge, England.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Concert_Spirituel</t>
-  </si>
-  <si>
-    <t>When did Concert Spirituel started?</t>
-  </si>
-  <si>
-    <t>When did Concert Spirituel started? Give a straight answer.</t>
-  </si>
-  <si>
-    <t>The Concert Spirituel started in Paris, France, in the year 1725.</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Andr%C3%A9_Danican_Philidor_the_elder</t>
   </si>
   <si>
@@ -140,117 +104,9 @@
     <t>André Danican Philidor, the famous French chess player and composer, played the oboe in the Royal Musketeers.</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/La_Cenerentola</t>
-  </si>
-  <si>
-    <t>Who wrote La Cenerentola?</t>
-  </si>
-  <si>
-    <t>Give a straight answer.</t>
-  </si>
-  <si>
-    <t>Gioacchino Rossini</t>
-  </si>
-  <si>
-    <t>Gioachino Rossini wrote La Cenerentola.</t>
-  </si>
-  <si>
-    <t>In what venue was La Cenerentola first staged?</t>
-  </si>
-  <si>
-    <t>In what venue was La Cenerentola first staged? Give a straight answer.</t>
-  </si>
-  <si>
-    <t>Teatro Valle</t>
-  </si>
-  <si>
-    <t>La Cenerentola was first staged at the Teatro Valle in Rome, Italy on January 25, 1817.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Antigone_(Sophocles_play)</t>
-  </si>
-  <si>
-    <t>When was Mendelssohn's adaptation of  Antigone of Sophocles staged?</t>
-  </si>
-  <si>
-    <t>When was Mendelssohn's adaptation of  Antigone of Sophocles staged? Give a straight answer.</t>
-  </si>
-  <si>
-    <t>Mendelssohn's adaptation of Sophocles' "Antigone" was staged in 1841.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ipermestra</t>
-  </si>
-  <si>
-    <t>Who set Metastasio's Ipermestra?</t>
-  </si>
-  <si>
-    <t>Who set Metastasio's Ipermestra? Give a straight answer.</t>
-  </si>
-  <si>
-    <t>Johann Adolph Hasse; Christoff Willibald Gluck</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>Metastasio's libretto for "Ipermestra" was set to music by the composer Antonio Vivaldi.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Der_Templer_und_die_J%C3%BCdin</t>
-  </si>
-  <si>
-    <t>Who authored Der Templer und die Jüdin?</t>
-  </si>
-  <si>
-    <t>Who authored Der Templer und die Jüdin? Give a straight answer.</t>
-  </si>
-  <si>
-    <t>Heinrich Marschner</t>
-  </si>
-  <si>
-    <t>Wilhelm August Wohlbrück.</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Der_Vampyr</t>
-  </si>
-  <si>
-    <t>Who wrote Der Vampyr?</t>
-  </si>
-  <si>
-    <t>Who wrote Der Vampyr? Give a straight answer.</t>
-  </si>
-  <si>
-    <t>Heinrich Marschner authored "Der Vampyr."</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Don_Pasquale</t>
-  </si>
-  <si>
-    <t>Who authored Don Pasquale?</t>
-  </si>
-  <si>
-    <t>Who authored Don Pasquale? Give a straight answer.</t>
-  </si>
-  <si>
-    <t>Gaetano Donizetti</t>
-  </si>
-  <si>
-    <t>Gaetano Donizetti is the composer of "Don Pasquale," an Italian opera buffa in three acts.</t>
-  </si>
-  <si>
-    <t>Who played Pasquale in Don Pasquale at the Italian premiere?</t>
-  </si>
-  <si>
-    <t>Who played Pasquale in Don Pasquale at the Italian premiere? Give a straight answer.</t>
-  </si>
-  <si>
-    <t>Napoleone Rossi</t>
-  </si>
-  <si>
-    <t>The role of Pasquale in Don Pasquale at the Italian premiere was played by bass Giovanni Mario del Cornò.</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Ferdinand_H%C3%A9rold</t>
   </si>
   <si>
@@ -269,24 +125,9 @@
     <t>https://en.wikipedia.org/wiki/Jean-Philippe_Rameau</t>
   </si>
   <si>
-    <t>What instrument did Rameau play?</t>
-  </si>
-  <si>
-    <t>What instrument did Rameau play? give a straight answer</t>
-  </si>
-  <si>
-    <t>Harpiscord</t>
-  </si>
-  <si>
-    <t>Harpiscord.</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Ann_Mounsey</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>What instrument did Mrs. Mounsey Bartholomew play?</t>
   </si>
   <si>
@@ -299,12 +140,6 @@
     <t>https://en.wikipedia.org/wiki/Giuditta_Pasta</t>
   </si>
   <si>
-    <t>When did Mademoiselle Pasta die?</t>
-  </si>
-  <si>
-    <t>As of my last update in September 2021, Mademoiselle Pasta is not a known historical figure. It's possible that there may be a lesser-known individual with that name or a fictional character that I'm not aware of. However, without more context or clarification, I cannot provide specific information about her death. If you could provide additional details or context, I'd be happy to try and help you further.</t>
-  </si>
-  <si>
     <t>When did Madame Pasta die?</t>
   </si>
   <si>
@@ -333,18 +168,6 @@
   </si>
   <si>
     <t>Adelina Patti, one of the most renowned opera singers of the 19th century, first performed at the age of eight at the Teatro Nuovo in Trieste, Italy. She made her debut in the opera "Giovanna di Napoli" in 1859, which was the beginning of her incredibly successful career as a soprano. Patti went on to become a global sensation and performed in numerous prestigious opera houses and theaters around the world.</t>
-  </si>
-  <si>
-    <t>In which opera did Adelina Patti make her debut?</t>
-  </si>
-  <si>
-    <t>In which opera did Adelina Patti make her debut? Give a straight answer.</t>
-  </si>
-  <si>
-    <t>Lucia di Lammermoor</t>
-  </si>
-  <si>
-    <t>Adelina Patti made her debut in the opera "Le prophète" by Giacomo Meyerbeer on January 14, 1859, in New York City.</t>
   </si>
   <si>
     <t>AMR graph (PENMAN)</t>
@@ -2066,9 +1889,6 @@
   <si>
     <t xml:space="preserve">Was Bellini born in Catania?
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M </t>
   </si>
   <si>
     <t>Was Bellini born in Catania?
@@ -3004,7 +2824,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -3021,7 +2841,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3347,586 +3166,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="3" width="52.5" customWidth="1"/>
-    <col min="4" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="42.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>132421</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3">
-        <v>122115</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <v>1725</v>
-      </c>
-      <c r="H4">
-        <v>136359</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5">
-        <v>136359</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6">
-        <v>116125</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7">
-        <v>116125</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8">
-        <v>1841</v>
-      </c>
-      <c r="H8">
-        <v>105573</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9">
-        <v>124844</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10">
-        <v>126013</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11">
-        <v>126013</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12">
-        <v>111420</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13">
-        <v>111420</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14">
-        <v>126013</v>
-      </c>
-      <c r="I14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15">
-        <v>110519</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="176" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16">
-        <v>103317</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="144" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17">
-        <v>1865</v>
-      </c>
-      <c r="H17">
-        <v>117208</v>
-      </c>
-      <c r="I17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1865</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <v>117208</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="160" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3">
-        <v>97387</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20">
-        <v>96892</v>
-      </c>
-      <c r="I20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21">
-        <v>96892</v>
-      </c>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:J21" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0569D805-A9FB-4807-A80C-7735E5C2F722}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{A9EC3C31-AE67-4A22-BA1C-40DEE8D3981B}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{FD153832-350C-4394-BA6E-A84E7C891EB7}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{81D694E4-A490-4184-98EE-552B892258AD}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{BCA75EDC-4766-4ECC-93C0-129B1C3D1DBF}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{A153B1CD-1130-44C5-87A9-62392A982E0D}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{EDA670E9-8B0E-4EA1-A4D7-08C887F19F90}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{7D924010-92CA-417C-9A32-FBDA74654FE4}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{6D611DAB-7338-41C7-8739-583FD0982411}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{A481AEE5-CB45-41DD-8773-62B2CF363271}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{213BD41C-19B1-4DCD-8950-C51887B88FE6}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{44CC5A0C-6331-4E77-9AFC-6430C5D49825}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{EB91506D-1F19-414C-A532-2A6070570074}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{448613F3-F394-44B6-8AEA-671240637A91}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{2C09DE8B-49CD-4667-ADD5-C1BE335ABA02}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{E54A373B-415D-49C1-974F-FD67BAC81B94}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{64B86B60-38F6-4B8E-9ED3-1D98136A02EC}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{4CEABFE9-309B-4DF1-870B-AD3223547104}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{D23DF647-029F-4E80-901C-1EFD642DFE9B}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{4C5ED80D-3D42-44D8-8292-9318A570D0AE}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E3B98E-0550-8240-B98D-1A5DC6A24B9C}">
   <dimension ref="A1:N101"/>
   <sheetViews>
@@ -3984,16 +3223,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
@@ -4001,40 +3240,40 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>117365</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
@@ -4042,40 +3281,40 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>132421</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
@@ -4083,40 +3322,40 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>120570</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
@@ -4124,40 +3363,40 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="H5" s="6">
         <v>120654</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
@@ -4165,40 +3404,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>125799</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
@@ -4206,40 +3445,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="H7">
         <v>137664</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="395" x14ac:dyDescent="0.2">
@@ -4247,43 +3486,43 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="H8">
         <v>99471</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="N8" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
@@ -4291,40 +3530,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="H9">
         <v>103430</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
@@ -4332,40 +3571,40 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="F10">
         <v>1818</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="H10">
         <v>137489</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
@@ -4373,40 +3612,40 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="H11">
         <v>112722</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
@@ -4414,40 +3653,40 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="F12" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="H12">
         <v>117606</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
@@ -4455,40 +3694,40 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="F13" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="H13">
         <v>137986</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
@@ -4496,40 +3735,40 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="H14">
         <v>121271</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="350" x14ac:dyDescent="0.2">
@@ -4537,40 +3776,40 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="H15">
         <v>138047</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J15" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="304" x14ac:dyDescent="0.2">
@@ -4578,31 +3817,31 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="G16" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="H16">
         <v>105628</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -4610,31 +3849,31 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="H17">
         <v>117626</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="144" x14ac:dyDescent="0.2">
@@ -4642,31 +3881,31 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="E18" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="F18" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="G18" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="H18">
         <v>110940</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
@@ -4674,40 +3913,40 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="F19" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="H19">
         <v>120449</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
@@ -4715,40 +3954,40 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="E20" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="H20" s="6">
         <v>123913</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
@@ -4756,40 +3995,40 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D21" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="E21" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="G21" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="H21">
         <v>102459</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="144" x14ac:dyDescent="0.2">
@@ -4797,31 +4036,31 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D22" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="E22" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="F22" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="H22">
         <v>117606</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="64" x14ac:dyDescent="0.2">
@@ -4829,31 +4068,31 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="F23" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="H23">
         <v>99395</v>
       </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J23" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="96" x14ac:dyDescent="0.2">
@@ -4861,31 +4100,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="F24" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="H24">
         <v>99395</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4893,31 +4132,31 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D25" t="s">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="E25" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="F25" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="H25">
         <v>101622</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>282</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="128" x14ac:dyDescent="0.2">
@@ -4925,31 +4164,31 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D26" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="F26" t="s">
-        <v>286</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="H26">
         <v>105566</v>
       </c>
       <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>288</v>
+        <v>13</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="144" x14ac:dyDescent="0.2">
@@ -4957,31 +4196,31 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>290</v>
+        <v>233</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="F27" t="s">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c r="G27" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
       <c r="H27">
         <v>103317</v>
       </c>
       <c r="I27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>294</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="144" x14ac:dyDescent="0.2">
@@ -4989,31 +4228,31 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>295</v>
+        <v>238</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D28" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="E28" t="s">
-        <v>297</v>
+        <v>240</v>
       </c>
       <c r="F28">
         <v>1879</v>
       </c>
       <c r="G28" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="H28">
         <v>103317</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="96" x14ac:dyDescent="0.2">
@@ -5021,31 +4260,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>300</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>302</v>
+        <v>245</v>
       </c>
       <c r="F29" t="s">
-        <v>303</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="H29">
         <v>103317</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="96" x14ac:dyDescent="0.2">
@@ -5053,31 +4292,31 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D30" t="s">
-        <v>307</v>
+        <v>250</v>
       </c>
       <c r="E30" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="F30" t="s">
-        <v>309</v>
+        <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="H30">
         <v>103317</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>311</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="128" x14ac:dyDescent="0.2">
@@ -5085,31 +4324,31 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>312</v>
+        <v>255</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D31" t="s">
-        <v>313</v>
+        <v>256</v>
       </c>
       <c r="E31" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="F31" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="G31" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="H31">
         <v>121318</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
@@ -5117,40 +4356,40 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="F32" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="H32">
         <v>112228</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J32" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>325</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="409.6" x14ac:dyDescent="0.2">
@@ -5158,37 +4397,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D33" t="s">
-        <v>327</v>
+        <v>270</v>
       </c>
       <c r="E33" t="s">
-        <v>328</v>
+        <v>271</v>
       </c>
       <c r="F33" t="s">
-        <v>329</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="H33">
         <v>102029</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="380" x14ac:dyDescent="0.2">
@@ -5196,37 +4435,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
       <c r="F34" t="s">
-        <v>336</v>
+        <v>279</v>
       </c>
       <c r="G34" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="H34">
         <v>110495</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="L34" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="112" x14ac:dyDescent="0.2">
@@ -5234,31 +4473,31 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D35" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
       <c r="E35" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="F35" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="G35" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="H35">
         <v>117609</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -5266,31 +4505,31 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D36" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="E36" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="F36" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="G36" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
       <c r="H36">
         <v>117606</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J36" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -5298,31 +4537,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D37" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="E37" t="s">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="F37" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="G37" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="H37">
         <v>138047</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -5330,31 +4569,31 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="F38" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
       <c r="G38" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="H38">
         <v>138047</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J38" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -5362,31 +4601,31 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="E39" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="F39" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="H39" s="6">
         <v>110683</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="112" x14ac:dyDescent="0.2">
@@ -5394,31 +4633,31 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D40" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="E40" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="F40">
         <v>1840</v>
       </c>
       <c r="G40" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="H40">
         <v>123913</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5426,31 +4665,31 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="F41" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="G41" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="H41">
         <v>123913</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -5458,31 +4697,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D42" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="E42" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="G42" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="H42">
         <v>117609</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J42" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="144" x14ac:dyDescent="0.2">
@@ -5490,31 +4729,31 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D43" t="s">
+        <v>323</v>
+      </c>
+      <c r="E43" t="s">
+        <v>324</v>
+      </c>
+      <c r="F43" t="s">
+        <v>325</v>
+      </c>
+      <c r="G43" t="s">
         <v>326</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D43" t="s">
-        <v>380</v>
-      </c>
-      <c r="E43" t="s">
-        <v>381</v>
-      </c>
-      <c r="F43" t="s">
-        <v>382</v>
-      </c>
-      <c r="G43" t="s">
-        <v>383</v>
       </c>
       <c r="H43">
         <v>102029</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>384</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="128" x14ac:dyDescent="0.2">
@@ -5522,31 +4761,31 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>385</v>
+        <v>328</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>386</v>
+        <v>329</v>
       </c>
       <c r="F44" t="s">
-        <v>387</v>
+        <v>330</v>
       </c>
       <c r="G44" t="s">
-        <v>388</v>
+        <v>331</v>
       </c>
       <c r="H44">
         <v>117365</v>
       </c>
       <c r="I44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>389</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="32" x14ac:dyDescent="0.2">
@@ -5554,31 +4793,31 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="F45" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="G45" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="H45">
         <v>129902</v>
       </c>
       <c r="I45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="64" x14ac:dyDescent="0.2">
@@ -5586,31 +4825,31 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>397</v>
+        <v>339</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="F46" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
       <c r="G46" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="H46">
         <v>125904</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="48" x14ac:dyDescent="0.2">
@@ -5618,31 +4857,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="C47" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D47" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="F47" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="G47" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="H47">
         <v>124851</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J47" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -5650,31 +4889,31 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D48" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="E48" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="F48" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="G48" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="H48">
         <v>120341</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -5682,31 +4921,31 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D49" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="E49" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="F49" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="G49" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="H49">
         <v>120341</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J49" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -5714,31 +4953,31 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="C50" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D50" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="E50" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="F50" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="G50" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
       <c r="H50">
         <v>102901</v>
       </c>
       <c r="I50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -5746,31 +4985,31 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="C51" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D51" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="E51" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="F51" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="G51" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="H51">
         <v>110705</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J51" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -5778,31 +5017,31 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="C52" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D52" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
       <c r="E52" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
       <c r="F52" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
       <c r="G52" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="H52">
         <v>94627</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J52" t="s">
-        <v>434</v>
+        <v>376</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -5810,31 +5049,31 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="C53" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D53" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="E53" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="F53" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="G53" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="H53">
         <v>113909</v>
       </c>
       <c r="I53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>440</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -5842,31 +5081,31 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="C54" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D54" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="E54" t="s">
-        <v>443</v>
+        <v>385</v>
       </c>
       <c r="F54" t="s">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="G54" t="s">
-        <v>445</v>
+        <v>387</v>
       </c>
       <c r="H54">
         <v>111970</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -5874,31 +5113,31 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D55" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
       <c r="E55" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="F55" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c r="G55" t="s">
-        <v>449</v>
+        <v>391</v>
       </c>
       <c r="H55">
         <v>105628</v>
       </c>
       <c r="I55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J55" t="s">
-        <v>450</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -5906,31 +5145,31 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D56" t="s">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="E56" t="s">
-        <v>452</v>
+        <v>394</v>
       </c>
       <c r="F56" t="s">
-        <v>453</v>
+        <v>395</v>
       </c>
       <c r="G56" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="H56">
         <v>117626</v>
       </c>
       <c r="I56" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J56" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -5938,31 +5177,31 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D57" t="s">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="E57" t="s">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="F57">
         <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>457</v>
+        <v>399</v>
       </c>
       <c r="H57">
         <v>115634</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J57" t="s">
-        <v>458</v>
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -5970,31 +5209,31 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>459</v>
+        <v>401</v>
       </c>
       <c r="C58" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D58" t="s">
-        <v>460</v>
+        <v>402</v>
       </c>
       <c r="E58" t="s">
-        <v>461</v>
+        <v>403</v>
       </c>
       <c r="F58" t="s">
-        <v>462</v>
+        <v>404</v>
       </c>
       <c r="G58" t="s">
-        <v>463</v>
+        <v>405</v>
       </c>
       <c r="H58">
         <v>95261</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
-        <v>464</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -6002,31 +5241,31 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>465</v>
+        <v>407</v>
       </c>
       <c r="C59" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D59" t="s">
-        <v>466</v>
+        <v>408</v>
       </c>
       <c r="E59" t="s">
-        <v>467</v>
+        <v>409</v>
       </c>
       <c r="F59" t="s">
-        <v>468</v>
+        <v>410</v>
       </c>
       <c r="G59" t="s">
-        <v>469</v>
+        <v>411</v>
       </c>
       <c r="H59">
         <v>119894</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J59" t="s">
-        <v>470</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -6034,31 +5273,31 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>471</v>
+        <v>413</v>
       </c>
       <c r="C60" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D60" t="s">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="E60" t="s">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="F60" t="s">
-        <v>473</v>
+        <v>415</v>
       </c>
       <c r="G60" t="s">
-        <v>474</v>
+        <v>416</v>
       </c>
       <c r="H60">
         <v>125062</v>
       </c>
       <c r="I60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J60" t="s">
-        <v>475</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -6066,31 +5305,31 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D61" t="s">
-        <v>476</v>
+        <v>418</v>
       </c>
       <c r="E61" t="s">
-        <v>477</v>
+        <v>419</v>
       </c>
       <c r="F61" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="G61" t="s">
-        <v>477</v>
+        <v>419</v>
       </c>
       <c r="H61">
         <v>100131</v>
       </c>
       <c r="I61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J61" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -6098,31 +5337,31 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>480</v>
+        <v>422</v>
       </c>
       <c r="C62" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D62" t="s">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="E62" t="s">
-        <v>482</v>
+        <v>424</v>
       </c>
       <c r="F62" t="s">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="G62" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="H62">
         <v>100131</v>
       </c>
       <c r="I62" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -6130,31 +5369,31 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>486</v>
+        <v>428</v>
       </c>
       <c r="C63" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D63" t="s">
-        <v>487</v>
+        <v>429</v>
       </c>
       <c r="E63" t="s">
-        <v>488</v>
+        <v>430</v>
       </c>
       <c r="F63" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="G63" t="s">
-        <v>490</v>
+        <v>432</v>
       </c>
       <c r="H63">
         <v>110760</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J63" t="s">
-        <v>491</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -6162,31 +5401,31 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>492</v>
+        <v>434</v>
       </c>
       <c r="C64" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D64" t="s">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="E64" t="s">
-        <v>494</v>
+        <v>436</v>
       </c>
       <c r="F64" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="G64" t="s">
-        <v>496</v>
+        <v>438</v>
       </c>
       <c r="H64">
         <v>115012</v>
       </c>
       <c r="I64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J64" t="s">
-        <v>497</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -6194,31 +5433,31 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>390</v>
+        <v>333</v>
       </c>
       <c r="C65" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D65" t="s">
-        <v>498</v>
+        <v>440</v>
       </c>
       <c r="E65" t="s">
-        <v>499</v>
+        <v>441</v>
       </c>
       <c r="F65" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="G65" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="H65">
         <v>129902</v>
       </c>
       <c r="I65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J65" t="s">
-        <v>500</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -6226,31 +5465,31 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D66" t="s">
-        <v>501</v>
+        <v>443</v>
       </c>
       <c r="E66" t="s">
-        <v>502</v>
+        <v>444</v>
       </c>
       <c r="F66" t="s">
-        <v>503</v>
+        <v>445</v>
       </c>
       <c r="G66" t="s">
-        <v>504</v>
+        <v>446</v>
       </c>
       <c r="H66">
         <v>120341</v>
       </c>
       <c r="I66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>505</v>
+        <v>447</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -6258,31 +5497,31 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="C67" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D67" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="E67" t="s">
-        <v>507</v>
+        <v>449</v>
       </c>
       <c r="F67" t="s">
-        <v>508</v>
+        <v>450</v>
       </c>
       <c r="G67" t="s">
-        <v>509</v>
+        <v>451</v>
       </c>
       <c r="H67">
         <v>124851</v>
       </c>
       <c r="I67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J67" t="s">
-        <v>510</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -6290,31 +5529,31 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D68" t="s">
-        <v>511</v>
+        <v>453</v>
       </c>
       <c r="E68" t="s">
-        <v>512</v>
+        <v>454</v>
       </c>
       <c r="F68" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="G68" t="s">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="H68">
         <v>105628</v>
       </c>
       <c r="I68" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J68" t="s">
-        <v>515</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -6322,31 +5561,31 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="C69" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D69" t="s">
-        <v>516</v>
+        <v>458</v>
       </c>
       <c r="E69" t="s">
-        <v>517</v>
+        <v>459</v>
       </c>
       <c r="F69" t="s">
-        <v>518</v>
+        <v>460</v>
       </c>
       <c r="G69" t="s">
-        <v>519</v>
+        <v>461</v>
       </c>
       <c r="H69">
         <v>94627</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J69" t="s">
-        <v>520</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -6354,31 +5593,31 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>521</v>
+        <v>463</v>
       </c>
       <c r="C70" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D70" t="s">
-        <v>522</v>
+        <v>464</v>
       </c>
       <c r="E70" t="s">
-        <v>523</v>
+        <v>465</v>
       </c>
       <c r="F70" t="s">
-        <v>524</v>
+        <v>466</v>
       </c>
       <c r="G70" t="s">
-        <v>525</v>
+        <v>467</v>
       </c>
       <c r="H70">
         <v>97909</v>
       </c>
       <c r="I70" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J70" t="s">
-        <v>526</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -6386,31 +5625,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>527</v>
+        <v>469</v>
       </c>
       <c r="C71" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D71" t="s">
-        <v>528</v>
+        <v>470</v>
       </c>
       <c r="E71" t="s">
-        <v>529</v>
+        <v>471</v>
       </c>
       <c r="F71" t="s">
-        <v>530</v>
+        <v>472</v>
       </c>
       <c r="G71" t="s">
-        <v>531</v>
+        <v>473</v>
       </c>
       <c r="H71">
         <v>115240</v>
       </c>
       <c r="I71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J71" t="s">
-        <v>532</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -6418,31 +5657,31 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>533</v>
+        <v>475</v>
       </c>
       <c r="C72" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D72" t="s">
-        <v>534</v>
+        <v>476</v>
       </c>
       <c r="E72" t="s">
-        <v>535</v>
+        <v>477</v>
       </c>
       <c r="F72" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="G72" t="s">
-        <v>537</v>
+        <v>479</v>
       </c>
       <c r="H72">
         <v>112679</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J72" t="s">
-        <v>538</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -6450,31 +5689,31 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>539</v>
+        <v>481</v>
       </c>
       <c r="C73" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D73" t="s">
-        <v>540</v>
+        <v>482</v>
       </c>
       <c r="E73" t="s">
-        <v>541</v>
+        <v>483</v>
       </c>
       <c r="F73" t="s">
-        <v>542</v>
+        <v>484</v>
       </c>
       <c r="G73" t="s">
-        <v>543</v>
+        <v>485</v>
       </c>
       <c r="H73">
         <v>112027</v>
       </c>
       <c r="I73" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J73" t="s">
-        <v>544</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -6482,31 +5721,31 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>545</v>
+        <v>487</v>
       </c>
       <c r="C74" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D74" t="s">
-        <v>546</v>
+        <v>488</v>
       </c>
       <c r="E74" t="s">
-        <v>546</v>
+        <v>488</v>
       </c>
       <c r="F74" t="s">
-        <v>547</v>
+        <v>489</v>
       </c>
       <c r="G74" t="s">
-        <v>548</v>
+        <v>490</v>
       </c>
       <c r="H74">
         <v>118943</v>
       </c>
       <c r="I74" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J74" t="s">
-        <v>549</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -6514,31 +5753,31 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>550</v>
+        <v>492</v>
       </c>
       <c r="C75" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D75" t="s">
-        <v>551</v>
+        <v>493</v>
       </c>
       <c r="E75" t="s">
-        <v>551</v>
+        <v>493</v>
       </c>
       <c r="F75">
         <v>39</v>
       </c>
       <c r="G75" t="s">
-        <v>552</v>
+        <v>494</v>
       </c>
       <c r="H75">
         <v>119801</v>
       </c>
       <c r="I75" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J75" t="s">
-        <v>553</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -6546,31 +5785,31 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>554</v>
+        <v>496</v>
       </c>
       <c r="C76" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D76" t="s">
-        <v>555</v>
+        <v>497</v>
       </c>
       <c r="E76" t="s">
-        <v>556</v>
+        <v>498</v>
       </c>
       <c r="F76" t="s">
-        <v>557</v>
+        <v>499</v>
       </c>
       <c r="G76" t="s">
-        <v>558</v>
+        <v>500</v>
       </c>
       <c r="H76">
         <v>107595</v>
       </c>
       <c r="I76" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J76" t="s">
-        <v>559</v>
+        <v>501</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -6578,31 +5817,31 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>560</v>
+        <v>502</v>
       </c>
       <c r="C77" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D77" t="s">
-        <v>561</v>
+        <v>503</v>
       </c>
       <c r="E77" t="s">
-        <v>562</v>
+        <v>504</v>
       </c>
       <c r="F77" t="s">
-        <v>563</v>
+        <v>505</v>
       </c>
       <c r="G77" t="s">
-        <v>564</v>
+        <v>506</v>
       </c>
       <c r="H77">
         <v>101516</v>
       </c>
       <c r="I77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>565</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -6610,31 +5849,31 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>566</v>
+        <v>508</v>
       </c>
       <c r="C78" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D78" t="s">
-        <v>567</v>
+        <v>509</v>
       </c>
       <c r="E78" t="s">
-        <v>568</v>
+        <v>510</v>
       </c>
       <c r="F78" t="s">
-        <v>569</v>
+        <v>511</v>
       </c>
       <c r="G78" t="s">
-        <v>570</v>
+        <v>512</v>
       </c>
       <c r="H78">
         <v>111527</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J78" t="s">
-        <v>571</v>
+        <v>513</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -6642,31 +5881,31 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C79" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D79" t="s">
-        <v>572</v>
+        <v>514</v>
       </c>
       <c r="E79" t="s">
-        <v>573</v>
+        <v>515</v>
       </c>
       <c r="F79" t="s">
-        <v>574</v>
+        <v>516</v>
       </c>
       <c r="G79" t="s">
-        <v>575</v>
+        <v>517</v>
       </c>
       <c r="H79">
         <v>110547</v>
       </c>
       <c r="I79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J79" t="s">
-        <v>576</v>
+        <v>518</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -6674,31 +5913,31 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="C80" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D80" t="s">
-        <v>577</v>
+        <v>519</v>
       </c>
       <c r="E80" t="s">
-        <v>578</v>
+        <v>520</v>
       </c>
       <c r="F80" t="s">
-        <v>579</v>
+        <v>521</v>
       </c>
       <c r="G80" t="s">
-        <v>580</v>
+        <v>522</v>
       </c>
       <c r="H80">
         <v>123913</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J80" t="s">
-        <v>581</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -6706,31 +5945,31 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>582</v>
+        <v>524</v>
       </c>
       <c r="C81" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D81" t="s">
-        <v>583</v>
+        <v>525</v>
       </c>
       <c r="E81" t="s">
-        <v>584</v>
+        <v>526</v>
       </c>
       <c r="F81" t="s">
-        <v>585</v>
+        <v>527</v>
       </c>
       <c r="G81" t="s">
-        <v>586</v>
+        <v>528</v>
       </c>
       <c r="H81">
         <v>95804</v>
       </c>
       <c r="I81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J81" t="s">
-        <v>587</v>
+        <v>529</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -6738,31 +5977,31 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C82" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D82" t="s">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E82" t="s">
-        <v>589</v>
+        <v>531</v>
       </c>
       <c r="F82">
         <v>1914</v>
       </c>
       <c r="G82" t="s">
-        <v>590</v>
+        <v>532</v>
       </c>
       <c r="H82">
         <v>96893</v>
       </c>
       <c r="I82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J82" t="s">
-        <v>591</v>
+        <v>533</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -6770,31 +6009,31 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="C83" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D83" t="s">
-        <v>592</v>
+        <v>534</v>
       </c>
       <c r="E83" t="s">
-        <v>593</v>
+        <v>535</v>
       </c>
       <c r="F83" t="s">
-        <v>594</v>
+        <v>536</v>
       </c>
       <c r="G83" t="s">
-        <v>595</v>
+        <v>537</v>
       </c>
       <c r="H83">
         <v>110692</v>
       </c>
       <c r="I83" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J83" t="s">
-        <v>596</v>
+        <v>538</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -6802,31 +6041,31 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>597</v>
+        <v>539</v>
       </c>
       <c r="C84" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D84" t="s">
-        <v>598</v>
+        <v>540</v>
       </c>
       <c r="E84" t="s">
-        <v>599</v>
+        <v>541</v>
       </c>
       <c r="F84" t="s">
-        <v>600</v>
+        <v>542</v>
       </c>
       <c r="G84" t="s">
-        <v>601</v>
+        <v>543</v>
       </c>
       <c r="H84">
         <v>124680</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J84" t="s">
-        <v>602</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -6834,31 +6073,31 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D85" t="s">
-        <v>603</v>
+        <v>545</v>
       </c>
       <c r="E85" t="s">
-        <v>604</v>
+        <v>546</v>
       </c>
       <c r="F85" t="s">
-        <v>605</v>
+        <v>547</v>
       </c>
       <c r="G85" t="s">
-        <v>606</v>
+        <v>548</v>
       </c>
       <c r="H85">
         <v>110940</v>
       </c>
       <c r="I85" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J85" t="s">
-        <v>607</v>
+        <v>549</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -6866,31 +6105,31 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="C86" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D86" t="s">
-        <v>608</v>
+        <v>550</v>
       </c>
       <c r="E86" t="s">
-        <v>609</v>
+        <v>551</v>
       </c>
       <c r="F86" t="s">
-        <v>610</v>
+        <v>552</v>
       </c>
       <c r="G86" t="s">
-        <v>611</v>
+        <v>553</v>
       </c>
       <c r="H86">
         <v>121271</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J86" t="s">
-        <v>612</v>
+        <v>554</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -6898,31 +6137,31 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>613</v>
+        <v>555</v>
       </c>
       <c r="C87" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D87" t="s">
-        <v>614</v>
+        <v>556</v>
       </c>
       <c r="E87" t="s">
-        <v>615</v>
+        <v>557</v>
       </c>
       <c r="F87" t="s">
-        <v>616</v>
+        <v>558</v>
       </c>
       <c r="G87" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="H87">
         <v>107346</v>
       </c>
       <c r="I87" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J87" t="s">
-        <v>618</v>
+        <v>560</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -6930,31 +6169,31 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>326</v>
+        <v>269</v>
       </c>
       <c r="C88" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D88" t="s">
-        <v>619</v>
+        <v>561</v>
       </c>
       <c r="E88" t="s">
-        <v>620</v>
+        <v>562</v>
       </c>
       <c r="F88" t="s">
-        <v>621</v>
+        <v>563</v>
       </c>
       <c r="G88" t="s">
-        <v>622</v>
+        <v>564</v>
       </c>
       <c r="H88">
         <v>102029</v>
       </c>
       <c r="I88" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J88" t="s">
-        <v>623</v>
+        <v>565</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -6962,31 +6201,31 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D89" t="s">
-        <v>624</v>
+        <v>566</v>
       </c>
       <c r="E89" t="s">
-        <v>625</v>
+        <v>567</v>
       </c>
       <c r="F89" t="s">
-        <v>626</v>
+        <v>568</v>
       </c>
       <c r="G89" t="s">
-        <v>627</v>
+        <v>569</v>
       </c>
       <c r="H89">
         <v>117606</v>
       </c>
       <c r="I89" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J89" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -6994,31 +6233,31 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>629</v>
+        <v>571</v>
       </c>
       <c r="C90" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D90" t="s">
-        <v>630</v>
+        <v>572</v>
       </c>
       <c r="E90" t="s">
-        <v>631</v>
+        <v>573</v>
       </c>
       <c r="F90" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="G90" t="s">
-        <v>633</v>
+        <v>575</v>
       </c>
       <c r="H90">
         <v>111058</v>
       </c>
       <c r="I90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J90" t="s">
-        <v>634</v>
+        <v>576</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -7026,31 +6265,31 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>635</v>
+        <v>577</v>
       </c>
       <c r="C91" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D91" t="s">
-        <v>636</v>
+        <v>578</v>
       </c>
       <c r="E91" t="s">
-        <v>637</v>
+        <v>579</v>
       </c>
       <c r="F91" t="s">
-        <v>638</v>
+        <v>580</v>
       </c>
       <c r="G91" t="s">
-        <v>639</v>
+        <v>581</v>
       </c>
       <c r="H91">
         <v>111058</v>
       </c>
       <c r="I91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J91" t="s">
-        <v>640</v>
+        <v>582</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -7058,31 +6297,31 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="C92" t="s">
-        <v>653</v>
+        <v>595</v>
       </c>
       <c r="D92" t="s">
-        <v>641</v>
+        <v>583</v>
       </c>
       <c r="E92" t="s">
-        <v>642</v>
+        <v>584</v>
       </c>
       <c r="F92" t="s">
-        <v>643</v>
+        <v>585</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>644</v>
+        <v>586</v>
       </c>
       <c r="H92">
         <v>102588</v>
       </c>
       <c r="I92" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J92" t="s">
-        <v>645</v>
+        <v>587</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -7090,31 +6329,31 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>646</v>
+        <v>588</v>
       </c>
       <c r="C93" t="s">
-        <v>652</v>
+        <v>594</v>
       </c>
       <c r="D93" t="s">
-        <v>647</v>
+        <v>589</v>
       </c>
       <c r="E93" t="s">
-        <v>648</v>
+        <v>590</v>
       </c>
       <c r="F93" t="s">
-        <v>649</v>
+        <v>591</v>
       </c>
       <c r="G93" t="s">
-        <v>650</v>
+        <v>592</v>
       </c>
       <c r="H93">
         <v>98247</v>
       </c>
       <c r="I93" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="J93" t="s">
-        <v>651</v>
+        <v>593</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="112" x14ac:dyDescent="0.2">
@@ -7122,31 +6361,31 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="D94" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="13" t="s">
+      <c r="G94" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="H94" s="13">
+        <v>132421</v>
+      </c>
+      <c r="I94" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="J94" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="G94" s="14" t="s">
-        <v>654</v>
-      </c>
-      <c r="H94" s="14">
-        <v>132421</v>
-      </c>
-      <c r="I94" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J94" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="288" x14ac:dyDescent="0.2">
@@ -7154,31 +6393,31 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>657</v>
-      </c>
-      <c r="F95" s="14">
+        <v>597</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="F95" s="13">
         <v>1802</v>
       </c>
-      <c r="G95" s="14" t="s">
-        <v>658</v>
+      <c r="G95" s="13" t="s">
+        <v>600</v>
       </c>
       <c r="H95" s="6">
         <v>113011</v>
       </c>
-      <c r="I95" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J95" s="13" t="s">
-        <v>659</v>
+      <c r="I95" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" s="12" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="80" x14ac:dyDescent="0.2">
@@ -7186,31 +6425,31 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G96" s="14" t="s">
-        <v>660</v>
-      </c>
-      <c r="H96" s="14">
+        <v>16</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="H96" s="13">
         <v>136359</v>
       </c>
-      <c r="I96" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J96" s="13" t="s">
-        <v>30</v>
+      <c r="I96" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="32" x14ac:dyDescent="0.2">
@@ -7218,31 +6457,31 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G97" s="14" t="s">
-        <v>661</v>
-      </c>
-      <c r="H97" s="14">
+        <v>22</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="H97" s="13">
         <v>126013</v>
       </c>
-      <c r="I97" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="J97" s="13" t="s">
-        <v>72</v>
+      <c r="I97" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="365" x14ac:dyDescent="0.2">
@@ -7250,31 +6489,31 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="G98" s="14" t="s">
-        <v>662</v>
-      </c>
-      <c r="H98" s="14">
+        <v>28</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>604</v>
+      </c>
+      <c r="H98" s="13">
         <v>103317</v>
       </c>
-      <c r="I98" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J98" s="13" t="s">
-        <v>82</v>
+      <c r="I98" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="160" x14ac:dyDescent="0.2">
@@ -7282,31 +6521,31 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F99" s="13">
+        <v>32</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" s="12">
         <v>1865</v>
       </c>
-      <c r="G99" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="H99" s="13">
+      <c r="G99" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="H99" s="12">
         <v>117208</v>
       </c>
-      <c r="I99" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J99" s="13" t="s">
-        <v>87</v>
+      <c r="I99" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="365" x14ac:dyDescent="0.2">
@@ -7314,29 +6553,29 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>664</v>
-      </c>
-      <c r="H100" s="13">
+        <v>35</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="H100" s="12">
         <v>97387</v>
       </c>
-      <c r="I100" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J100" s="13" t="s">
-        <v>91</v>
+      <c r="I100" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -7344,31 +6583,31 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G101" s="14" t="s">
-        <v>665</v>
-      </c>
-      <c r="H101" s="14">
+        <v>39</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="H101" s="13">
         <v>96892</v>
       </c>
-      <c r="I101" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J101" s="14" t="s">
-        <v>95</v>
+      <c r="I101" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -7479,3326 +6718,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385E1AD1-949C-A947-9819-07D7C619DE28}">
-  <dimension ref="A1:A49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDD22A9-5B56-4324-8A85-2702002AD913}">
-  <dimension ref="A1:N44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="3" width="36.1640625" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
-    <col min="11" max="11" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="51.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="66.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H2">
-        <v>117365</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3">
-        <v>132421</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4">
-        <v>120570</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" s="6">
-        <v>120654</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H6">
-        <v>125799</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7">
-        <v>137664</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="L7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="395" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8">
-        <v>99471</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="N8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H9">
-        <v>103430</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10">
-        <v>1818</v>
-      </c>
-      <c r="G10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H10">
-        <v>137489</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H11">
-        <v>112722</v>
-      </c>
-      <c r="I11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H12">
-        <v>117606</v>
-      </c>
-      <c r="I12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" t="s">
-        <v>196</v>
-      </c>
-      <c r="G13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H13">
-        <v>137986</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="L13" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F14" t="s">
-        <v>204</v>
-      </c>
-      <c r="G14" t="s">
-        <v>205</v>
-      </c>
-      <c r="H14">
-        <v>121271</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
-        <v>206</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="L14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="350" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>210</v>
-      </c>
-      <c r="E15" t="s">
-        <v>211</v>
-      </c>
-      <c r="F15" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" t="s">
-        <v>213</v>
-      </c>
-      <c r="H15">
-        <v>138047</v>
-      </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="L15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="304" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" t="s">
-        <v>221</v>
-      </c>
-      <c r="H16">
-        <v>105628</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H17">
-        <v>117626</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="144" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E18" t="s">
-        <v>231</v>
-      </c>
-      <c r="F18" t="s">
-        <v>232</v>
-      </c>
-      <c r="G18" t="s">
-        <v>233</v>
-      </c>
-      <c r="H18">
-        <v>110940</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="F19" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" t="s">
-        <v>239</v>
-      </c>
-      <c r="H19">
-        <v>120449</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" t="s">
-        <v>240</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>244</v>
-      </c>
-      <c r="E20" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" t="s">
-        <v>246</v>
-      </c>
-      <c r="G20" t="s">
-        <v>247</v>
-      </c>
-      <c r="H20" s="6">
-        <v>123913</v>
-      </c>
-      <c r="I20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="L20" t="s">
-        <v>48</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" t="s">
-        <v>252</v>
-      </c>
-      <c r="E21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F21" t="s">
-        <v>254</v>
-      </c>
-      <c r="G21" t="s">
-        <v>255</v>
-      </c>
-      <c r="H21">
-        <v>102459</v>
-      </c>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="144" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>260</v>
-      </c>
-      <c r="E22" t="s">
-        <v>261</v>
-      </c>
-      <c r="F22" t="s">
-        <v>262</v>
-      </c>
-      <c r="G22" t="s">
-        <v>263</v>
-      </c>
-      <c r="H22">
-        <v>117606</v>
-      </c>
-      <c r="I22" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" ht="64" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F23" t="s">
-        <v>268</v>
-      </c>
-      <c r="G23" t="s">
-        <v>269</v>
-      </c>
-      <c r="H23">
-        <v>99395</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="F24" t="s">
-        <v>274</v>
-      </c>
-      <c r="G24" t="s">
-        <v>275</v>
-      </c>
-      <c r="H24">
-        <v>99395</v>
-      </c>
-      <c r="I24" t="s">
-        <v>48</v>
-      </c>
-      <c r="J24" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>278</v>
-      </c>
-      <c r="E25" t="s">
-        <v>279</v>
-      </c>
-      <c r="F25" t="s">
-        <v>280</v>
-      </c>
-      <c r="G25" t="s">
-        <v>281</v>
-      </c>
-      <c r="H25">
-        <v>101622</v>
-      </c>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="128" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>284</v>
-      </c>
-      <c r="E26" t="s">
-        <v>285</v>
-      </c>
-      <c r="F26" t="s">
-        <v>286</v>
-      </c>
-      <c r="G26" t="s">
-        <v>287</v>
-      </c>
-      <c r="H26">
-        <v>105566</v>
-      </c>
-      <c r="I26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" ht="144" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G27" t="s">
-        <v>293</v>
-      </c>
-      <c r="H27">
-        <v>103317</v>
-      </c>
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" ht="144" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E28" t="s">
-        <v>297</v>
-      </c>
-      <c r="F28">
-        <v>1879</v>
-      </c>
-      <c r="G28" t="s">
-        <v>298</v>
-      </c>
-      <c r="H28">
-        <v>103317</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F29" t="s">
-        <v>303</v>
-      </c>
-      <c r="G29" t="s">
-        <v>304</v>
-      </c>
-      <c r="H29">
-        <v>103317</v>
-      </c>
-      <c r="I29" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" ht="96" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>307</v>
-      </c>
-      <c r="E30" t="s">
-        <v>308</v>
-      </c>
-      <c r="F30" t="s">
-        <v>309</v>
-      </c>
-      <c r="G30" t="s">
-        <v>310</v>
-      </c>
-      <c r="H30">
-        <v>103317</v>
-      </c>
-      <c r="I30" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" ht="128" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>313</v>
-      </c>
-      <c r="E31" t="s">
-        <v>314</v>
-      </c>
-      <c r="F31" t="s">
-        <v>315</v>
-      </c>
-      <c r="G31" t="s">
-        <v>316</v>
-      </c>
-      <c r="H31">
-        <v>121318</v>
-      </c>
-      <c r="I31" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F32" t="s">
-        <v>321</v>
-      </c>
-      <c r="G32" t="s">
-        <v>322</v>
-      </c>
-      <c r="H32">
-        <v>112228</v>
-      </c>
-      <c r="I32" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" t="s">
-        <v>323</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="L32" t="s">
-        <v>15</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" t="s">
-        <v>327</v>
-      </c>
-      <c r="E33" t="s">
-        <v>328</v>
-      </c>
-      <c r="F33" t="s">
-        <v>329</v>
-      </c>
-      <c r="G33" t="s">
-        <v>330</v>
-      </c>
-      <c r="H33">
-        <v>102029</v>
-      </c>
-      <c r="I33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="L33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="380" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F34" t="s">
-        <v>336</v>
-      </c>
-      <c r="G34" t="s">
-        <v>337</v>
-      </c>
-      <c r="H34">
-        <v>110495</v>
-      </c>
-      <c r="I34" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="L34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="112" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>340</v>
-      </c>
-      <c r="E35" t="s">
-        <v>341</v>
-      </c>
-      <c r="F35" t="s">
-        <v>342</v>
-      </c>
-      <c r="G35" t="s">
-        <v>343</v>
-      </c>
-      <c r="H35">
-        <v>117609</v>
-      </c>
-      <c r="I35" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" t="s">
-        <v>345</v>
-      </c>
-      <c r="E36" t="s">
-        <v>346</v>
-      </c>
-      <c r="F36" t="s">
-        <v>347</v>
-      </c>
-      <c r="G36" t="s">
-        <v>348</v>
-      </c>
-      <c r="H36">
-        <v>117606</v>
-      </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="144" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" t="s">
-        <v>350</v>
-      </c>
-      <c r="E37" t="s">
-        <v>351</v>
-      </c>
-      <c r="F37" t="s">
-        <v>352</v>
-      </c>
-      <c r="G37" t="s">
-        <v>353</v>
-      </c>
-      <c r="H37">
-        <v>138047</v>
-      </c>
-      <c r="I37" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F38" t="s">
-        <v>357</v>
-      </c>
-      <c r="G38" t="s">
-        <v>358</v>
-      </c>
-      <c r="H38">
-        <v>138047</v>
-      </c>
-      <c r="I38" t="s">
-        <v>48</v>
-      </c>
-      <c r="J38" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="48" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E39" t="s">
-        <v>362</v>
-      </c>
-      <c r="F39" t="s">
-        <v>363</v>
-      </c>
-      <c r="G39" t="s">
-        <v>364</v>
-      </c>
-      <c r="H39" s="6">
-        <v>110683</v>
-      </c>
-      <c r="I39" t="s">
-        <v>48</v>
-      </c>
-      <c r="J39" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="112" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" t="s">
-        <v>366</v>
-      </c>
-      <c r="E40" t="s">
-        <v>367</v>
-      </c>
-      <c r="F40">
-        <v>1840</v>
-      </c>
-      <c r="G40" t="s">
-        <v>368</v>
-      </c>
-      <c r="H40">
-        <v>123913</v>
-      </c>
-      <c r="I40" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="128" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F41" t="s">
-        <v>372</v>
-      </c>
-      <c r="G41" t="s">
-        <v>373</v>
-      </c>
-      <c r="H41">
-        <v>123913</v>
-      </c>
-      <c r="I41" t="s">
-        <v>48</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D42" t="s">
-        <v>375</v>
-      </c>
-      <c r="E42" t="s">
-        <v>376</v>
-      </c>
-      <c r="F42" t="s">
-        <v>377</v>
-      </c>
-      <c r="G42" t="s">
-        <v>378</v>
-      </c>
-      <c r="H42">
-        <v>117609</v>
-      </c>
-      <c r="I42" t="s">
-        <v>48</v>
-      </c>
-      <c r="J42" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" ht="144" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D43" t="s">
-        <v>380</v>
-      </c>
-      <c r="E43" t="s">
-        <v>381</v>
-      </c>
-      <c r="F43" t="s">
-        <v>382</v>
-      </c>
-      <c r="G43" t="s">
-        <v>383</v>
-      </c>
-      <c r="H43">
-        <v>102029</v>
-      </c>
-      <c r="I43" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" ht="128" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F44" t="s">
-        <v>387</v>
-      </c>
-      <c r="G44" t="s">
-        <v>388</v>
-      </c>
-      <c r="H44">
-        <v>117365</v>
-      </c>
-      <c r="I44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F2080C83-7233-4FEB-9BCA-E6FFF1749D95}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{3181EC8A-94A2-4475-8F03-37B6733FD5C1}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{A260C652-3B5B-4285-B0F3-797EDEEF3E8E}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{697D3FF8-278D-4CAC-85B4-08985EB09B90}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{B57CF0D4-B887-4ECF-AE90-630DB4526800}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{2E31BD4E-0782-42CD-91FC-727DAE824BE5}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{E2931363-0713-4C0E-8D1A-85E92BE2B97F}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{FC168CFA-7D21-4563-B779-ACEE6369A178}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{FEDA56A6-59A1-45E6-A535-3743DF7C2849}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{65B14470-1263-42BF-BF07-6540DB48A816}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{8FBDCDB8-CC73-4797-96CC-21005D9FEF80}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{E5C6BC76-D6BE-4A31-83C7-571918624404}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{96237234-F723-44A0-A19B-8E0A5E8280C5}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{46DFFACD-82E7-4A20-9142-D454BAA5F4C3}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{4CAB4043-8B74-4513-9C06-1EDD3B88853D}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{1F561146-3CDC-4BE3-9018-28492F405E50}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{B865F465-1C68-473A-B92D-011AB2FCC617}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{72215832-FF83-4215-A339-1F4D336DB646}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{5BBC4E3E-FB61-4A08-B421-4B31CD5F07BC}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{D5D7915A-E4E8-4CC0-8CCB-38C1B1BCD99A}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{4A444166-C8A5-47BF-8133-5C8F5783E604}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{E66D155E-2A6C-4F30-B65A-F218172AB2DE}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{45D6A5D5-DE24-42F9-A64A-62883373CD3F}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{B232AC18-2BAE-4462-A9EA-7D78CEFAEDF0}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{E91E553C-179C-4939-90C9-1E5ADA738724}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{76212D54-8E6A-43D5-9881-A82DA11C6890}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{79CD86B5-5276-430C-BE26-5693F5F4138A}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{89DE1BCD-F09F-411F-9C6B-85F3A5B3EF85}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{63A10DFC-0E10-437B-B5C3-594AAA9AA305}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{BF7E2BD4-4938-4D75-A6B6-B7EA0516113C}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{5DF9BA2B-619B-4E0E-B6B4-5570F0D8DE2F}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{1DBEDE6C-6373-4C10-B6BB-3E653B9340C4}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{01FEBEEB-AD30-4450-947E-15E07315C5BB}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{C6DBB166-A441-4958-A276-80AA86B3B8E5}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{310A2481-5412-4ECC-B40C-746C9C222643}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{81D5E2B9-8AA2-4147-BEE8-10B3DC4A7827}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{9F51BC43-2F61-4F46-B6FA-493A3EBD403A}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{BEA0A5F9-7EBB-4634-8AA8-D6219A27E996}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{2737ED17-7B73-4725-ACED-7F862CA8ECD2}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{4CC89B60-C059-4667-BB72-EC5E8AD19E39}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{30697928-55B2-4D55-B847-DC99C52895AD}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{B92A60FD-A4C8-4711-859D-7D6DC4AF1CF7}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{F1F4D2F6-9E3D-4DC9-9B5D-87A8F37606ED}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0492150-255B-4DC2-B987-EED2E4901E0B}">
-  <dimension ref="A1:J50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B50"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="4" width="28.1640625" customWidth="1"/>
-    <col min="5" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="F2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G2" t="s">
-        <v>395</v>
-      </c>
-      <c r="H2">
-        <v>129902</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G3" t="s">
-        <v>401</v>
-      </c>
-      <c r="H3">
-        <v>125904</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C4" t="s">
-        <v>404</v>
-      </c>
-      <c r="D4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F4" t="s">
-        <v>406</v>
-      </c>
-      <c r="G4" t="s">
-        <v>407</v>
-      </c>
-      <c r="H4">
-        <v>124851</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F5" t="s">
-        <v>411</v>
-      </c>
-      <c r="G5" t="s">
-        <v>412</v>
-      </c>
-      <c r="H5">
-        <v>120341</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" t="s">
-        <v>414</v>
-      </c>
-      <c r="D6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>415</v>
-      </c>
-      <c r="F6" t="s">
-        <v>416</v>
-      </c>
-      <c r="G6" t="s">
-        <v>417</v>
-      </c>
-      <c r="H6">
-        <v>120341</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C7" t="s">
-        <v>420</v>
-      </c>
-      <c r="D7" t="s">
-        <v>392</v>
-      </c>
-      <c r="E7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G7" t="s">
-        <v>423</v>
-      </c>
-      <c r="H7">
-        <v>102901</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C8" t="s">
-        <v>425</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>426</v>
-      </c>
-      <c r="F8" t="s">
-        <v>427</v>
-      </c>
-      <c r="G8" t="s">
-        <v>428</v>
-      </c>
-      <c r="H8">
-        <v>110705</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C9" t="s">
-        <v>430</v>
-      </c>
-      <c r="D9" t="s">
-        <v>392</v>
-      </c>
-      <c r="E9" t="s">
-        <v>431</v>
-      </c>
-      <c r="F9" t="s">
-        <v>432</v>
-      </c>
-      <c r="G9" t="s">
-        <v>433</v>
-      </c>
-      <c r="H9">
-        <v>94627</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C10" t="s">
-        <v>436</v>
-      </c>
-      <c r="D10" t="s">
-        <v>392</v>
-      </c>
-      <c r="E10" t="s">
-        <v>437</v>
-      </c>
-      <c r="F10" t="s">
-        <v>438</v>
-      </c>
-      <c r="G10" t="s">
-        <v>439</v>
-      </c>
-      <c r="H10">
-        <v>113909</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C11" t="s">
-        <v>442</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F11" t="s">
-        <v>444</v>
-      </c>
-      <c r="G11" t="s">
-        <v>445</v>
-      </c>
-      <c r="H11">
-        <v>111970</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C12" t="s">
-        <v>447</v>
-      </c>
-      <c r="D12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" t="s">
-        <v>448</v>
-      </c>
-      <c r="F12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" t="s">
-        <v>449</v>
-      </c>
-      <c r="H12">
-        <v>105628</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" t="s">
-        <v>451</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
-        <v>452</v>
-      </c>
-      <c r="F13" t="s">
-        <v>453</v>
-      </c>
-      <c r="G13" t="s">
-        <v>378</v>
-      </c>
-      <c r="H13">
-        <v>117626</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" t="s">
-        <v>455</v>
-      </c>
-      <c r="D14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" t="s">
-        <v>456</v>
-      </c>
-      <c r="F14">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>457</v>
-      </c>
-      <c r="H14">
-        <v>115634</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C15" t="s">
-        <v>460</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>461</v>
-      </c>
-      <c r="F15" t="s">
-        <v>462</v>
-      </c>
-      <c r="G15" t="s">
-        <v>463</v>
-      </c>
-      <c r="H15">
-        <v>95261</v>
-      </c>
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C16" t="s">
-        <v>466</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" t="s">
-        <v>467</v>
-      </c>
-      <c r="F16" t="s">
-        <v>468</v>
-      </c>
-      <c r="G16" t="s">
-        <v>469</v>
-      </c>
-      <c r="H16">
-        <v>119894</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C17" t="s">
-        <v>472</v>
-      </c>
-      <c r="D17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s">
-        <v>472</v>
-      </c>
-      <c r="F17" t="s">
-        <v>473</v>
-      </c>
-      <c r="G17" t="s">
-        <v>474</v>
-      </c>
-      <c r="H17">
-        <v>125062</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" t="s">
-        <v>476</v>
-      </c>
-      <c r="D18" t="s">
-        <v>392</v>
-      </c>
-      <c r="E18" t="s">
-        <v>477</v>
-      </c>
-      <c r="F18" t="s">
-        <v>478</v>
-      </c>
-      <c r="G18" t="s">
-        <v>477</v>
-      </c>
-      <c r="H18">
-        <v>100131</v>
-      </c>
-      <c r="I18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C19" t="s">
-        <v>481</v>
-      </c>
-      <c r="D19" t="s">
-        <v>392</v>
-      </c>
-      <c r="E19" t="s">
-        <v>482</v>
-      </c>
-      <c r="F19" t="s">
-        <v>483</v>
-      </c>
-      <c r="G19" t="s">
-        <v>484</v>
-      </c>
-      <c r="H19">
-        <v>100131</v>
-      </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J19" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C20" t="s">
-        <v>487</v>
-      </c>
-      <c r="D20" t="s">
-        <v>392</v>
-      </c>
-      <c r="E20" t="s">
-        <v>488</v>
-      </c>
-      <c r="F20" t="s">
-        <v>489</v>
-      </c>
-      <c r="G20" t="s">
-        <v>490</v>
-      </c>
-      <c r="H20">
-        <v>110760</v>
-      </c>
-      <c r="I20" t="s">
-        <v>48</v>
-      </c>
-      <c r="J20" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C21" t="s">
-        <v>493</v>
-      </c>
-      <c r="D21" t="s">
-        <v>392</v>
-      </c>
-      <c r="E21" t="s">
-        <v>494</v>
-      </c>
-      <c r="F21" t="s">
-        <v>495</v>
-      </c>
-      <c r="G21" t="s">
-        <v>496</v>
-      </c>
-      <c r="H21">
-        <v>115012</v>
-      </c>
-      <c r="I21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C22" t="s">
-        <v>498</v>
-      </c>
-      <c r="D22" t="s">
-        <v>392</v>
-      </c>
-      <c r="E22" t="s">
-        <v>499</v>
-      </c>
-      <c r="F22" t="s">
-        <v>394</v>
-      </c>
-      <c r="G22" t="s">
-        <v>395</v>
-      </c>
-      <c r="H22">
-        <v>129902</v>
-      </c>
-      <c r="I22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" t="s">
-        <v>501</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>502</v>
-      </c>
-      <c r="F23" t="s">
-        <v>503</v>
-      </c>
-      <c r="G23" t="s">
-        <v>504</v>
-      </c>
-      <c r="H23">
-        <v>120341</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C24" t="s">
-        <v>506</v>
-      </c>
-      <c r="D24" t="s">
-        <v>392</v>
-      </c>
-      <c r="E24" t="s">
-        <v>507</v>
-      </c>
-      <c r="F24" t="s">
-        <v>508</v>
-      </c>
-      <c r="G24" t="s">
-        <v>509</v>
-      </c>
-      <c r="H24">
-        <v>124851</v>
-      </c>
-      <c r="I24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C25" t="s">
-        <v>511</v>
-      </c>
-      <c r="D25" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
-        <v>512</v>
-      </c>
-      <c r="F25" t="s">
-        <v>513</v>
-      </c>
-      <c r="G25" t="s">
-        <v>514</v>
-      </c>
-      <c r="H25">
-        <v>105628</v>
-      </c>
-      <c r="I25" t="s">
-        <v>48</v>
-      </c>
-      <c r="J25" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C26" t="s">
-        <v>516</v>
-      </c>
-      <c r="D26" t="s">
-        <v>392</v>
-      </c>
-      <c r="E26" t="s">
-        <v>517</v>
-      </c>
-      <c r="F26" t="s">
-        <v>518</v>
-      </c>
-      <c r="G26" t="s">
-        <v>519</v>
-      </c>
-      <c r="H26">
-        <v>94627</v>
-      </c>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C27" t="s">
-        <v>522</v>
-      </c>
-      <c r="D27" t="s">
-        <v>392</v>
-      </c>
-      <c r="E27" t="s">
-        <v>523</v>
-      </c>
-      <c r="F27" t="s">
-        <v>524</v>
-      </c>
-      <c r="G27" t="s">
-        <v>525</v>
-      </c>
-      <c r="H27">
-        <v>97909</v>
-      </c>
-      <c r="I27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C28" t="s">
-        <v>528</v>
-      </c>
-      <c r="D28" t="s">
-        <v>392</v>
-      </c>
-      <c r="E28" t="s">
-        <v>529</v>
-      </c>
-      <c r="F28" t="s">
-        <v>530</v>
-      </c>
-      <c r="G28" t="s">
-        <v>531</v>
-      </c>
-      <c r="H28">
-        <v>115240</v>
-      </c>
-      <c r="I28" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C29" t="s">
-        <v>534</v>
-      </c>
-      <c r="D29" t="s">
-        <v>392</v>
-      </c>
-      <c r="E29" t="s">
-        <v>535</v>
-      </c>
-      <c r="F29" t="s">
-        <v>536</v>
-      </c>
-      <c r="G29" t="s">
-        <v>537</v>
-      </c>
-      <c r="H29">
-        <v>112679</v>
-      </c>
-      <c r="I29" t="s">
-        <v>48</v>
-      </c>
-      <c r="J29" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C30" t="s">
-        <v>540</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" t="s">
-        <v>541</v>
-      </c>
-      <c r="F30" t="s">
-        <v>542</v>
-      </c>
-      <c r="G30" t="s">
-        <v>543</v>
-      </c>
-      <c r="H30">
-        <v>112027</v>
-      </c>
-      <c r="I30" t="s">
-        <v>48</v>
-      </c>
-      <c r="J30" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C31" t="s">
-        <v>546</v>
-      </c>
-      <c r="D31" t="s">
-        <v>392</v>
-      </c>
-      <c r="E31" t="s">
-        <v>546</v>
-      </c>
-      <c r="F31" t="s">
-        <v>547</v>
-      </c>
-      <c r="G31" t="s">
-        <v>548</v>
-      </c>
-      <c r="H31">
-        <v>118943</v>
-      </c>
-      <c r="I31" t="s">
-        <v>48</v>
-      </c>
-      <c r="J31" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C32" t="s">
-        <v>551</v>
-      </c>
-      <c r="D32" t="s">
-        <v>392</v>
-      </c>
-      <c r="E32" t="s">
-        <v>551</v>
-      </c>
-      <c r="F32">
-        <v>39</v>
-      </c>
-      <c r="G32" t="s">
-        <v>552</v>
-      </c>
-      <c r="H32">
-        <v>119801</v>
-      </c>
-      <c r="I32" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C33" t="s">
-        <v>555</v>
-      </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" t="s">
-        <v>556</v>
-      </c>
-      <c r="F33" t="s">
-        <v>557</v>
-      </c>
-      <c r="G33" t="s">
-        <v>558</v>
-      </c>
-      <c r="H33">
-        <v>107595</v>
-      </c>
-      <c r="I33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C34" t="s">
-        <v>561</v>
-      </c>
-      <c r="D34" t="s">
-        <v>392</v>
-      </c>
-      <c r="E34" t="s">
-        <v>562</v>
-      </c>
-      <c r="F34" t="s">
-        <v>563</v>
-      </c>
-      <c r="G34" t="s">
-        <v>564</v>
-      </c>
-      <c r="H34">
-        <v>101516</v>
-      </c>
-      <c r="I34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C35" t="s">
-        <v>567</v>
-      </c>
-      <c r="D35" t="s">
-        <v>392</v>
-      </c>
-      <c r="E35" t="s">
-        <v>568</v>
-      </c>
-      <c r="F35" t="s">
-        <v>569</v>
-      </c>
-      <c r="G35" t="s">
-        <v>570</v>
-      </c>
-      <c r="H35">
-        <v>111527</v>
-      </c>
-      <c r="I35" t="s">
-        <v>48</v>
-      </c>
-      <c r="J35" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>572</v>
-      </c>
-      <c r="D36" t="s">
-        <v>392</v>
-      </c>
-      <c r="E36" t="s">
-        <v>573</v>
-      </c>
-      <c r="F36" t="s">
-        <v>574</v>
-      </c>
-      <c r="G36" t="s">
-        <v>575</v>
-      </c>
-      <c r="H36">
-        <v>110547</v>
-      </c>
-      <c r="I36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J36" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C37" t="s">
-        <v>577</v>
-      </c>
-      <c r="D37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" t="s">
-        <v>578</v>
-      </c>
-      <c r="F37" t="s">
-        <v>579</v>
-      </c>
-      <c r="G37" t="s">
-        <v>580</v>
-      </c>
-      <c r="H37">
-        <v>123913</v>
-      </c>
-      <c r="I37" t="s">
-        <v>48</v>
-      </c>
-      <c r="J37" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C38" t="s">
-        <v>583</v>
-      </c>
-      <c r="D38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" t="s">
-        <v>584</v>
-      </c>
-      <c r="F38" t="s">
-        <v>585</v>
-      </c>
-      <c r="G38" t="s">
-        <v>586</v>
-      </c>
-      <c r="H38">
-        <v>95804</v>
-      </c>
-      <c r="I38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" t="s">
-        <v>588</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" t="s">
-        <v>589</v>
-      </c>
-      <c r="F39">
-        <v>1914</v>
-      </c>
-      <c r="G39" t="s">
-        <v>590</v>
-      </c>
-      <c r="H39">
-        <v>96893</v>
-      </c>
-      <c r="I39" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C40" t="s">
-        <v>592</v>
-      </c>
-      <c r="D40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" t="s">
-        <v>593</v>
-      </c>
-      <c r="F40" t="s">
-        <v>594</v>
-      </c>
-      <c r="G40" t="s">
-        <v>595</v>
-      </c>
-      <c r="H40">
-        <v>110692</v>
-      </c>
-      <c r="I40" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C41" t="s">
-        <v>598</v>
-      </c>
-      <c r="D41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" t="s">
-        <v>599</v>
-      </c>
-      <c r="F41" t="s">
-        <v>600</v>
-      </c>
-      <c r="G41" t="s">
-        <v>601</v>
-      </c>
-      <c r="H41">
-        <v>124680</v>
-      </c>
-      <c r="I41" t="s">
-        <v>48</v>
-      </c>
-      <c r="J41" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" t="s">
-        <v>603</v>
-      </c>
-      <c r="D42" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" t="s">
-        <v>604</v>
-      </c>
-      <c r="F42" t="s">
-        <v>605</v>
-      </c>
-      <c r="G42" t="s">
-        <v>606</v>
-      </c>
-      <c r="H42">
-        <v>110940</v>
-      </c>
-      <c r="I42" t="s">
-        <v>48</v>
-      </c>
-      <c r="J42" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" t="s">
-        <v>608</v>
-      </c>
-      <c r="D43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" t="s">
-        <v>609</v>
-      </c>
-      <c r="F43" t="s">
-        <v>610</v>
-      </c>
-      <c r="G43" t="s">
-        <v>611</v>
-      </c>
-      <c r="H43">
-        <v>121271</v>
-      </c>
-      <c r="I43" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C44" t="s">
-        <v>614</v>
-      </c>
-      <c r="D44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" t="s">
-        <v>615</v>
-      </c>
-      <c r="F44" t="s">
-        <v>616</v>
-      </c>
-      <c r="G44" t="s">
-        <v>617</v>
-      </c>
-      <c r="H44">
-        <v>107346</v>
-      </c>
-      <c r="I44" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C45" t="s">
-        <v>619</v>
-      </c>
-      <c r="D45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" t="s">
-        <v>620</v>
-      </c>
-      <c r="F45" t="s">
-        <v>621</v>
-      </c>
-      <c r="G45" t="s">
-        <v>622</v>
-      </c>
-      <c r="H45">
-        <v>102029</v>
-      </c>
-      <c r="I45" t="s">
-        <v>48</v>
-      </c>
-      <c r="J45" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C46" t="s">
-        <v>624</v>
-      </c>
-      <c r="D46" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" t="s">
-        <v>625</v>
-      </c>
-      <c r="F46" t="s">
-        <v>626</v>
-      </c>
-      <c r="G46" t="s">
-        <v>627</v>
-      </c>
-      <c r="H46">
-        <v>117606</v>
-      </c>
-      <c r="I46" t="s">
-        <v>48</v>
-      </c>
-      <c r="J46" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C47" t="s">
-        <v>630</v>
-      </c>
-      <c r="D47" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" t="s">
-        <v>631</v>
-      </c>
-      <c r="F47" t="s">
-        <v>632</v>
-      </c>
-      <c r="G47" t="s">
-        <v>633</v>
-      </c>
-      <c r="H47">
-        <v>111058</v>
-      </c>
-      <c r="I47" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C48" t="s">
-        <v>636</v>
-      </c>
-      <c r="D48" t="s">
-        <v>392</v>
-      </c>
-      <c r="E48" t="s">
-        <v>637</v>
-      </c>
-      <c r="F48" t="s">
-        <v>638</v>
-      </c>
-      <c r="G48" t="s">
-        <v>639</v>
-      </c>
-      <c r="H48">
-        <v>111058</v>
-      </c>
-      <c r="I48" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C49" t="s">
-        <v>641</v>
-      </c>
-      <c r="D49" t="s">
-        <v>392</v>
-      </c>
-      <c r="E49" t="s">
-        <v>642</v>
-      </c>
-      <c r="F49" t="s">
-        <v>643</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="H49">
-        <v>102588</v>
-      </c>
-      <c r="I49" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C50" t="s">
-        <v>647</v>
-      </c>
-      <c r="D50" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" t="s">
-        <v>648</v>
-      </c>
-      <c r="F50" t="s">
-        <v>649</v>
-      </c>
-      <c r="G50" t="s">
-        <v>650</v>
-      </c>
-      <c r="H50">
-        <v>98247</v>
-      </c>
-      <c r="I50" t="s">
-        <v>48</v>
-      </c>
-      <c r="J50" t="s">
-        <v>651</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{1A9FC89F-F9F8-4701-BB6D-833A676B7C2D}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{6EFDF78E-FFEE-46D4-9E32-3F113F4F3A67}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{58C37C5B-96D9-4C5E-AD31-CE1885557DC0}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{E1DBF155-2A14-4998-90D2-5F0AE7EDAF90}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{76EDA96E-2997-49F8-8423-27AE5F2AF572}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{B9F6B338-18E2-4E34-8267-7073B9690F32}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{4FEB7AC9-6055-48E5-9C41-CDCD69424C95}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{714BAFDB-075B-49DB-8D77-A7331B97C922}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{1B1C4E77-FCC3-4986-AE20-DBFCED9EC775}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{1B267E9E-115D-4495-8D9E-1A36B7D5019D}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{441F5017-3C03-4CE5-8760-E8B5B344A23D}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{BEEA620D-83A3-44B6-B8E8-C9CB90BD3BFA}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{866C9ABD-2A52-41A9-A50A-5C0139B99EBD}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{D7FC7D32-DA41-4AF1-9314-B5FE6C4E51BE}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{B0ED39C4-6433-4316-9469-F96249E27400}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{D1FA0DB3-109E-4C97-80FB-1F2D169465C4}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{B3808FA2-9CC8-4E02-BF86-416A5A9E37BC}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{7E220E77-A2E9-45A5-A637-99B58AEA8377}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{25CA90F2-8EAA-4281-AEE4-827A1F37C58D}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{0302D0FE-0AA2-41BF-83A4-2338BD80B70E}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{77161DC7-B9F7-4AE5-889B-737A4ECE763B}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{2DFC87E1-BB8D-4BC2-A673-5E4423FB53F8}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{EB63DCC3-40AE-45A2-8B73-C70C1D6EF256}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{2AF6645D-0BF5-4724-83A7-B1E021E26D0D}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{85946066-C10A-4372-97C1-A4CB959A4912}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{48B1F9FC-9E02-4BA4-A441-D706BE5E5A34}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{B1731928-5130-44BD-8C06-649A1F404A02}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{8C9910CC-8C86-4BD1-A965-AEBC693F939C}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{295B7B86-7185-4D54-B0F3-835618C8DF52}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{C71A36E3-4041-4CF1-9166-97ECE92782F2}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{534F7276-6612-44D8-9A91-89ED919B0198}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{713E436C-4CF2-49CB-89B3-4F99177DD5F3}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{0890C9ED-ED66-44D1-B6D8-4C4A0885621E}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{7B1FBB62-71C9-471A-B275-A045BE1C0E2E}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{9B39A70E-5927-480B-B9C7-DBCDFEDD2CCE}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{CF648BD2-ECD5-4050-814E-085DA538708A}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{25C972E5-6DC2-4BE8-A39E-C8401940F0E1}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{584BF760-E556-4D9E-9523-13EFBBF1ECDA}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{32541EDA-029E-42C5-BBD4-D7CD033B5889}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{5435F764-3CD9-461F-93BF-89A3E0BF58F3}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{69DF3C15-9FD0-4546-8981-2381CDF086D3}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{2784A903-A5CF-49C0-A8C0-67A70DEFF6BC}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{7575D0DD-13C1-4B8F-A43D-E212C30D477C}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{BA96D2AF-E902-4D3E-B7F7-5823049B8B94}"/>
-    <hyperlink ref="B46" r:id="rId45" xr:uid="{7DCC5F9D-CA51-4D62-BCD4-757FD3CFF62C}"/>
-    <hyperlink ref="B47" r:id="rId46" xr:uid="{393B82B0-C937-43E0-BD05-165A87B09E39}"/>
-    <hyperlink ref="B48" r:id="rId47" xr:uid="{2B099816-E990-4B20-B5A5-1B4717381767}"/>
-    <hyperlink ref="B49" r:id="rId48" xr:uid="{97747C80-CBAA-4DF5-A99C-75C1D5F35CCA}"/>
-    <hyperlink ref="B50" r:id="rId49" xr:uid="{0D1E0281-27A6-4F41-B010-0CCA5D8975C6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -10809,17 +6728,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="d6ffb985-a7ae-40c0-906d-05d0dcf51054" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b3e41e30-95eb-45b9-b657-d2eda7f0eaf6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A444E4101166CB49B259A75BDE06F3BF" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="023d6e2cd6962c455c635a21ed4a173d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3e41e30-95eb-45b9-b657-d2eda7f0eaf6" xmlns:ns3="d6ffb985-a7ae-40c0-906d-05d0dcf51054" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e1ce60f0b61fd493aa55bfff4ecf7c7" ns2:_="" ns3:_="">
     <xsd:import namespace="b3e41e30-95eb-45b9-b657-d2eda7f0eaf6"/>
@@ -11068,6 +6976,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="d6ffb985-a7ae-40c0-906d-05d0dcf51054" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b3e41e30-95eb-45b9-b657-d2eda7f0eaf6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13A021C9-2D9C-4341-AD1B-BD84E4627249}">
   <ds:schemaRefs>
@@ -11077,17 +6996,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0301AD1E-C64D-488C-86B8-2D5B97D1B918}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d6ffb985-a7ae-40c0-906d-05d0dcf51054"/>
-    <ds:schemaRef ds:uri="b3e41e30-95eb-45b9-b657-d2eda7f0eaf6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01A6F401-FC2E-4592-9C77-2825842627E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11104,4 +7012,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0301AD1E-C64D-488C-86B8-2D5B97D1B918}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d6ffb985-a7ae-40c0-906d-05d0dcf51054"/>
+    <ds:schemaRef ds:uri="b3e41e30-95eb-45b9-b657-d2eda7f0eaf6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>